--- a/CheckList/Checklist.xlsx
+++ b/CheckList/Checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danila\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danila\Desktop\New folder (2)\Docs\CheckList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80735C86-C0A6-4329-81C9-51637388FBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756961D4-1C44-40D8-9F8A-501F26EE061B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,6 +357,18 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -370,18 +382,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -603,15 +603,15 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" customWidth="1"/>
     <col min="6" max="6" width="6.7109375" customWidth="1"/>
@@ -619,15 +619,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -649,21 +649,21 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -685,9 +685,9 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="12" t="s">
         <v>45</v>
       </c>
@@ -720,7 +720,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -733,17 +733,17 @@
       <c r="D4" s="4">
         <v>5</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="13">
         <v>5</v>
       </c>
       <c r="F4" s="5">
         <v>5</v>
       </c>
-      <c r="G4" s="22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -756,17 +756,17 @@
       <c r="D5" s="7">
         <v>5</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="14">
         <v>5</v>
       </c>
       <c r="F5" s="8">
         <v>5</v>
       </c>
-      <c r="G5" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -779,17 +779,17 @@
       <c r="D6" s="7">
         <v>4.8</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="14">
         <v>5</v>
       </c>
       <c r="F6" s="8">
         <v>5</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="16">
         <v>4.8</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -802,17 +802,17 @@
       <c r="D7" s="7">
         <v>4</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="14">
         <v>4.5</v>
       </c>
       <c r="F7" s="8">
         <v>4.8</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="16">
         <v>4.2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -825,17 +825,17 @@
       <c r="D8" s="7">
         <v>5</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="14">
         <v>5</v>
       </c>
       <c r="F8" s="8">
         <v>5</v>
       </c>
-      <c r="G8" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -848,17 +848,17 @@
       <c r="D9" s="7">
         <v>5</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="14">
         <v>4.5</v>
       </c>
       <c r="F9" s="8">
         <v>4.7</v>
       </c>
-      <c r="G9" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -871,17 +871,17 @@
       <c r="D10" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="14">
         <v>5</v>
       </c>
       <c r="F10" s="8">
         <v>5</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="16">
         <v>4.8</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -894,17 +894,17 @@
       <c r="D11" s="7">
         <v>5</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="14">
         <v>4.7</v>
       </c>
       <c r="F11" s="8">
         <v>4.2</v>
       </c>
-      <c r="G11" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -917,17 +917,17 @@
       <c r="D12" s="7">
         <v>4.5</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="14">
         <v>5</v>
       </c>
       <c r="F12" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G12" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -940,17 +940,17 @@
       <c r="D13" s="7">
         <v>5</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="14">
         <v>4.5</v>
       </c>
       <c r="F13" s="8">
         <v>5</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -963,17 +963,17 @@
       <c r="D14" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="14">
         <v>5</v>
       </c>
       <c r="F14" s="8">
         <v>4.7</v>
       </c>
-      <c r="G14" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -986,17 +986,17 @@
       <c r="D15" s="7">
         <v>5</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="14">
         <v>5</v>
       </c>
       <c r="F15" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="16">
         <v>4.7</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -1009,17 +1009,17 @@
       <c r="D16" s="7">
         <v>4.8</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="14">
         <v>5</v>
       </c>
       <c r="F16" s="8">
         <v>5</v>
       </c>
-      <c r="G16" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -1032,17 +1032,17 @@
       <c r="D17" s="7">
         <v>4.8</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="14">
         <v>5</v>
       </c>
       <c r="F17" s="8">
         <v>5</v>
       </c>
-      <c r="G17" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G17" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -1055,17 +1055,17 @@
       <c r="D18" s="7">
         <v>5</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="14">
         <v>5</v>
       </c>
       <c r="F18" s="8">
         <v>5</v>
       </c>
-      <c r="G18" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -1078,17 +1078,17 @@
       <c r="D19" s="7">
         <v>5</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="14">
         <v>5</v>
       </c>
       <c r="F19" s="8">
         <v>5</v>
       </c>
-      <c r="G19" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -1101,17 +1101,17 @@
       <c r="D20" s="7">
         <v>5</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="14">
         <v>4.7</v>
       </c>
       <c r="F20" s="8">
         <v>5</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="16">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -1124,17 +1124,17 @@
       <c r="D21" s="7">
         <v>5</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="14">
         <v>5</v>
       </c>
       <c r="F21" s="8">
         <v>4</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="16">
         <v>3.8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -1147,13 +1147,13 @@
       <c r="D22" s="7">
         <v>4.3</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="14">
         <v>4.7</v>
       </c>
       <c r="F22" s="8">
         <v>5</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="16">
         <v>5</v>
       </c>
     </row>
@@ -1170,13 +1170,13 @@
       <c r="D23" s="7">
         <v>5</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="14">
         <v>5</v>
       </c>
       <c r="F23" s="8">
         <v>5</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="16">
         <v>5</v>
       </c>
     </row>
